--- a/template/SquareTemplateLog.xlsx
+++ b/template/SquareTemplateLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\8 Extension Folder\8.1 Extension Folder\007-square-auto-download\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301B8721-A031-483A-A3F1-9F903433CD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E552F57-3BDF-4488-A422-FABDF7ECB8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="349" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="349" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="確認" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="115">
   <si>
     <t>001sqr</t>
   </si>
@@ -58,12 +58,6 @@
     <t>支払金額</t>
   </si>
   <si>
-    <t>001sqr_k01(テスト)</t>
-  </si>
-  <si>
-    <t>月末-前半</t>
-  </si>
-  <si>
     <t>支払明細票 兼 売上票</t>
   </si>
   <si>
@@ -148,9 +142,6 @@
     <t>売上件数</t>
   </si>
   <si>
-    <t>手数料・受取件数</t>
-  </si>
-  <si>
     <t>取扱高</t>
   </si>
   <si>
@@ -368,6 +359,12 @@
   </si>
   <si>
     <t>Sqr001Day15CombineShiharaikingakuYen</t>
+  </si>
+  <si>
+    <t>実行日</t>
+  </si>
+  <si>
+    <t>手数料総額</t>
   </si>
 </sst>
 </file>
@@ -412,8 +409,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -752,12 +749,15 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -784,72 +784,79 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>87</v>
+      <c r="B5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>89</v>
+      <c r="B6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>91</v>
+      <c r="B7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>93</v>
+      <c r="B8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>95</v>
+      <c r="B9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>85</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
@@ -865,55 +872,55 @@
       <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>97</v>
+      <c r="B15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>99</v>
+      <c r="B16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>101</v>
+      <c r="B17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>103</v>
+      <c r="B18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>105</v>
+      <c r="B19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -933,329 +940,329 @@
       <c r="A23" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>107</v>
+      <c r="B23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>109</v>
+      <c r="B24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>111</v>
+      <c r="B25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>113</v>
+      <c r="B26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>115</v>
+      <c r="B27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>84</v>
+        <v>19</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>83</v>
+        <v>20</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>51</v>
+        <v>24</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>52</v>
+        <v>25</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>54</v>
+        <v>26</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="B42" s="1"/>
+      <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" t="s">
-        <v>32</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>59</v>
+      <c r="F43" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" t="s">
-        <v>35</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>60</v>
+      <c r="F44" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" t="s">
         <v>37</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
         <v>38</v>
-      </c>
-      <c r="D47" t="s">
-        <v>39</v>
-      </c>
-      <c r="E47" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>68</v>
+        <v>39</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>69</v>
+      <c r="B49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>71</v>
+      <c r="B51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>72</v>
+        <v>114</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>74</v>
+      <c r="B54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1266,7 +1273,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A48:A54 A42:E42 C39:E39 C40 A39:A41 C41:E41 E40 A43:A44 C43:C44 E43:E44 A47:E47 B45:E46 A37:E38 A34:A36 C35:E36 A20:E20 A2 F20:M28 A10:E10 A14:A19 F14:F19 A4:A9 F4:F12 F1:F2 A22:E22 B21:E21 A12:E12 A28:E28 A23 D23:E23 A24 D24:E24 A25 D25:E25 A26 D26:E26 A27 D27:E27 F29:M42 A29:E33 F45:M54 G43:M43 G44:M44 D34:E34 C2:E2" numberStoredAsText="1"/>
+    <ignoredError sqref="A42:E42 C39:E39 C40 A39:A41 C41:E41 E40 A43:A44 C43:C44 E43:E44 A47 B45:E46 A37:E38 A34:A36 C35:E36 A20:E20 A2 F20:M28 A10:E10 A14:A19 F14:F19 A4:A9 F4:F12 F1:F2 A22:E22 B21:E21 A12:E12 A28:E28 A23 D23:E23 A24 D24:E24 A25 D25:E25 A26 D26:E26 A27 D27:E27 F29:M42 A29:E33 F45:M54 G43:M43 G44:M44 D34:E34 D2:E2 E47" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>